--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -588,15 +588,17 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="32.25" customWidth="1"/>
@@ -635,25 +637,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -681,112 +683,115 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:I8">
+    <sortCondition ref="D3:D8"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
   <si>
     <t>常见动词变位表(现在时)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +227,394 @@
   <si>
     <t>Robert wohnt in München.
 罗伯特住在慕尼黑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schreiben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kochen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.  读；阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeden Tag lesen wir die Zeitung.我们每天读报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 吃，吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinkst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rennen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schwimmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fahren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lieben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kommen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heißen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 写字，书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schreib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schreibst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schreibe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 做饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kocht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kochst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kocht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kochen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 奔跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rennt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rennt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rennen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rennst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schwimme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schwimmst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schwimmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schwimmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schwimmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 乘车；开车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fahre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fährst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fährt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fahrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 爱；喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich liebe dich.我爱你。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liebe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liebst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liebt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liebt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>love;like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kommt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kommst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>komme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kommen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 名为，叫，称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heiße</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heißt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heißt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heißen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 坐，就坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>küssen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>küssen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>küsst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>küsse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +676,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -341,7 +734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +769,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,31 +978,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,10 +1025,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -658,7 +1054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -680,8 +1076,11 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -703,8 +1102,11 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -726,14 +1128,17 @@
       <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="42">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -755,14 +1160,14 @@
       <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="28">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -784,8 +1189,343 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -794,6 +1534,11 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>